--- a/工作流/ADE20K_COCO语义分割颜色对照表+PS_AI色板/ADE20K_COCO语义分割颜色对照表 .xlsx
+++ b/工作流/ADE20K_COCO语义分割颜色对照表+PS_AI色板/ADE20K_COCO语义分割颜色对照表 .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Misla\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Baize-Notes\工作流\ADE20K_COCO语义分割颜色对照表+PS_AI色板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D1FA8A1-0B64-406F-B85B-C91CE16FD402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B328B31-763C-4CB4-9AB4-6B0B9C50EFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADE20K" sheetId="2" r:id="rId1"/>
@@ -3324,7 +3324,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3337,7 +3337,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3351,13 +3351,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="3"/>
@@ -3365,21 +3372,8 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -4857,887 +4851,890 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="135" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="136" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="137" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="138" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="139" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="140" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="141" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="142" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="143" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="144" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="145" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="146" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="147" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="148" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="149" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="150" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="151" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="152" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="153" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="154" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="155" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="156" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="157" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="158" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="159" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="160" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="161" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="162" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="163" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="164" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="165" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="166" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="167" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="168" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="169" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="170" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="171" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="172" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="173" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="174" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="175" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="176" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="177" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="178" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="179" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="180" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="181" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="182" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="183" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="184" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="185" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="186" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="187" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="188" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="189" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="190" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="191" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="192" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="193" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="194" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="195" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="196" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="197" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="198" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="199" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="200" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="201" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="202" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="203" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="204" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="205" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="206" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="207" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="208" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="209" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="210" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="211" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="212" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="213" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="214" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="215" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="216" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="217" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="218" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="219" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="220" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="221" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="222" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="223" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="224" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="225" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="226" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="227" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="228" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="229" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="230" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="231" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="232" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="233" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="234" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="235" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="61" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="236" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="237" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="238" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="239" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="240" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="241" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="242" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="243" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="244" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="245" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="246" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="247" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="248" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="249" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="250" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="251" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="252" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="253" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="254" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="255" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="256" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="257" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="258" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="259" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="260" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="261" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="262" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="263" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="264" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="265" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="266" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="267" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="268" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="269" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="270" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="271" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="272" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="273" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="274" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="275" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="276" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="277" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="278" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="279" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="280" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="48" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="50" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="51" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="53" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="54" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="55" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="56" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="57" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="58" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="59" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="60" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="61" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="62" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="63" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="64" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="66" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="67" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="69" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="70" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="71" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="72" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="73" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="74" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="75" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="76" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="77" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="78" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="79" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="80" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="81" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="82" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="83" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="84" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="85" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="86" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="87" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="88" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="89" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="90" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="91" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="92" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="93" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="94" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="95" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="96" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="97" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="98" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="99" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="100" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="101" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="102" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="103" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="104" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="105" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="106" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="107" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="108" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="109" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="110" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="111" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="112" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="113" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="114" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="115" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="116" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="117" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="118" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="119" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="120" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="121" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="122" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="123" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="124" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="125" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="126" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="127" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="128" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="129" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="130" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="131" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="132" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="133" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="134" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="135" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="136" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="137" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="138" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="139" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="140" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="141" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="142" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="143" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="144" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="145" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="146" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="147" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="148" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="149" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="150" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="151" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="152" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="153" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="154" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="155" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="156" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="157" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="158" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="159" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="160" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="161" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="162" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="163" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="164" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="165" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="166" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="167" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="168" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="169" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="170" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="171" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="172" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="173" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="174" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="175" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="176" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="177" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="178" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="179" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="180" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="181" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="182" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="183" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="184" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="185" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="186" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="187" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="188" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="189" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="190" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="191" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="192" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="193" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="194" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="195" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="196" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="197" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="198" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="199" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="200" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="201" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="202" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="203" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="204" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="205" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="206" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="207" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="208" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="209" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="210" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="211" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="212" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="213" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="214" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="215" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="216" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="217" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="218" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="219" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="220" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="221" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="222" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="223" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="224" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="225" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="226" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="227" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="228" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="229" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="230" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="231" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="232" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="233" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="234" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="235" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="61" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="236" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="237" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="238" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="239" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="240" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="241" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="242" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="243" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="244" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="245" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="246" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="247" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="248" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="249" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="250" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="251" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="252" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="253" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="254" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="255" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="256" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="257" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="258" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="259" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="260" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="261" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="262" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="263" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="264" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="265" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="266" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="267" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="268" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="269" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="270" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="271" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="272" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="273" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="274" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="275" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="276" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="277" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="278" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="279" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="280" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="281" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="45" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="46" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="47" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="48" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="50" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="51" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="53" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="54" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="55" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="56" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="57" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="58" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="59" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="60" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="62" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="63" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="64" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="65" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="66" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="67" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="68" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="69" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="70" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="71" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="72" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="73" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="74" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="75" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="76" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="77" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="78" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="79" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="80" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="81" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="82" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="83" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="84" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="85" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="86" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="87" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="88" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="89" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="90" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="91" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="92" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="93" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="94" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="95" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="96" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="97" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="98" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="99" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="100" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="101" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="102" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="103" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="104" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="105" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="106" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="107" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="108" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="109" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="110" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="111" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="112" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="113" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="114" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="115" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="116" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="117" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="118" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="119" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="120" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="121" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="122" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="123" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="124" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="125" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="126" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="127" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="128" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="129" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="130" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="131" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="132" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="133" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="134" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="281" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6044,2732 +6041,2735 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FA5872-6339-4784-96AF-32DACF132D14}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView view="pageBreakPreview" zoomScale="118" zoomScaleNormal="100" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="291" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="154" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="154" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="154" customWidth="1"/>
-    <col min="5" max="5" width="40.1640625" style="154" customWidth="1"/>
-    <col min="6" max="6" width="71" style="154" customWidth="1"/>
-    <col min="7" max="16384" width="9.33203125" style="154"/>
+    <col min="1" max="1" width="8.6640625" style="294" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="142" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="294" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="294" customWidth="1"/>
+    <col min="5" max="5" width="33.5" style="142" customWidth="1"/>
+    <col min="6" max="6" width="58.5" style="142" customWidth="1"/>
+    <col min="7" max="16384" width="9.33203125" style="142"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="153" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="286" t="s">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-    </row>
-    <row r="2" spans="1:6" s="153" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="292" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="292" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="292" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="292" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="292" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="292" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="289">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>540</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="141"/>
+      <c r="E3" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="289">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>544</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="143"/>
+      <c r="E4" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="289">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>548</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="144"/>
+      <c r="E5" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="289">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>552</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="145"/>
+      <c r="E6" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="289">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="146"/>
+      <c r="E7" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="289">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>560</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="147"/>
+      <c r="E8" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="289">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>564</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="148"/>
+      <c r="E9" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="289">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>566</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="149"/>
+      <c r="E10" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="289">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>570</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="150"/>
+      <c r="E11" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="289">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>574</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="151"/>
+      <c r="E12" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="289">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>578</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="152"/>
+      <c r="E13" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="289">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>582</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="153"/>
+      <c r="E14" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="289">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>586</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="154"/>
+      <c r="E15" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="289">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>590</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="155"/>
+      <c r="E16" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="289">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>594</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="156"/>
+      <c r="E17" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="289">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>598</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="157"/>
+      <c r="E18" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="289">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>602</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="1" t="s">
+      <c r="D19" s="158"/>
+      <c r="E19" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="289">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>606</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="1" t="s">
+      <c r="D20" s="159"/>
+      <c r="E20" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="289">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>610</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="1" t="s">
+      <c r="D21" s="160"/>
+      <c r="E21" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="289">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>612</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="161"/>
+      <c r="E22" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="289">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>616</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="1" t="s">
+      <c r="D23" s="162"/>
+      <c r="E23" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="289">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>620</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="1" t="s">
+      <c r="D24" s="163"/>
+      <c r="E24" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="289">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>624</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="1" t="s">
+      <c r="D25" s="164"/>
+      <c r="E25" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="289">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>628</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="1" t="s">
+      <c r="D26" s="165"/>
+      <c r="E26" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="289">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>631</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="1" t="s">
+      <c r="D27" s="166"/>
+      <c r="E27" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="289">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>634</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="1" t="s">
+      <c r="D28" s="167"/>
+      <c r="E28" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="289">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>636</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="1" t="s">
+      <c r="D29" s="168"/>
+      <c r="E29" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="2" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="289">
+      <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>640</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="1" t="s">
+      <c r="D30" s="169"/>
+      <c r="E30" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="2" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="289">
+      <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>644</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="1" t="s">
+      <c r="D31" s="170"/>
+      <c r="E31" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="2" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="289">
+      <c r="A32" s="6">
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>648</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="1" t="s">
+      <c r="D32" s="171"/>
+      <c r="E32" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="289">
+      <c r="A33" s="6">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>652</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="1" t="s">
+      <c r="D33" s="172"/>
+      <c r="E33" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="2" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="289">
+      <c r="A34" s="6">
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>656</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="1" t="s">
+      <c r="D34" s="173"/>
+      <c r="E34" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="2" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="289">
+      <c r="A35" s="6">
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>660</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="1" t="s">
+      <c r="D35" s="174"/>
+      <c r="E35" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="2" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="289">
+      <c r="A36" s="6">
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>664</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="1" t="s">
+      <c r="D36" s="175"/>
+      <c r="E36" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="2" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="289">
+      <c r="A37" s="6">
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>668</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="1" t="s">
+      <c r="D37" s="176"/>
+      <c r="E37" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="2" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="289">
+      <c r="A38" s="6">
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>672</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="1" t="s">
+      <c r="D38" s="177"/>
+      <c r="E38" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="289">
+      <c r="A39" s="6">
         <v>37</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>676</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="1" t="s">
+      <c r="D39" s="178"/>
+      <c r="E39" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="289">
+      <c r="A40" s="6">
         <v>38</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>680</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="1" t="s">
+      <c r="D40" s="179"/>
+      <c r="E40" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="2" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="289">
+      <c r="A41" s="6">
         <v>39</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>684</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="1" t="s">
+      <c r="D41" s="180"/>
+      <c r="E41" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="2" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="289">
+      <c r="A42" s="6">
         <v>40</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>688</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="1" t="s">
+      <c r="D42" s="181"/>
+      <c r="E42" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="2" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="289">
+      <c r="A43" s="6">
         <v>41</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>692</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="D43" s="42"/>
-      <c r="E43" s="1" t="s">
+      <c r="D43" s="182"/>
+      <c r="E43" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="2" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="289">
+      <c r="A44" s="6">
         <v>42</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>696</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="D44" s="43"/>
-      <c r="E44" s="1" t="s">
+      <c r="D44" s="183"/>
+      <c r="E44" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="2" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="289">
+      <c r="A45" s="6">
         <v>43</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>700</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="D45" s="44"/>
-      <c r="E45" s="1" t="s">
+      <c r="D45" s="184"/>
+      <c r="E45" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="2" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="289">
+      <c r="A46" s="6">
         <v>44</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>704</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="D46" s="45"/>
-      <c r="E46" s="1" t="s">
+      <c r="D46" s="185"/>
+      <c r="E46" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="2" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="289">
+    <row r="47" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
         <v>45</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>708</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="D47" s="46"/>
-      <c r="E47" s="1" t="s">
+      <c r="D47" s="186"/>
+      <c r="E47" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="2" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="289">
+      <c r="A48" s="6">
         <v>46</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>710</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="D48" s="47"/>
-      <c r="E48" s="1" t="s">
+      <c r="D48" s="187"/>
+      <c r="E48" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="2" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="289">
+      <c r="A49" s="6">
         <v>47</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>713</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="D49" s="48"/>
-      <c r="E49" s="1" t="s">
+      <c r="D49" s="188"/>
+      <c r="E49" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="2" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="289">
+      <c r="A50" s="6">
         <v>48</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>716</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="D50" s="49"/>
-      <c r="E50" s="1" t="s">
+      <c r="D50" s="189"/>
+      <c r="E50" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="2" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="289">
+      <c r="A51" s="6">
         <v>49</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>564</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="1" t="s">
+      <c r="D51" s="148"/>
+      <c r="E51" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="2" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="289">
+      <c r="A52" s="6">
         <v>50</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>722</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="D52" s="50"/>
-      <c r="E52" s="1" t="s">
+      <c r="D52" s="190"/>
+      <c r="E52" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="2" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="289">
+      <c r="A53" s="6">
         <v>51</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>726</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="D53" s="51"/>
-      <c r="E53" s="1" t="s">
+      <c r="D53" s="191"/>
+      <c r="E53" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="2" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="289">
+      <c r="A54" s="6">
         <v>52</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>730</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="D54" s="52"/>
-      <c r="E54" s="1" t="s">
+      <c r="D54" s="192"/>
+      <c r="E54" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="2" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="289">
+      <c r="A55" s="6">
         <v>53</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>734</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="D55" s="53"/>
-      <c r="E55" s="1" t="s">
+      <c r="D55" s="193"/>
+      <c r="E55" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="2" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="289">
+      <c r="A56" s="6">
         <v>54</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>738</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="D56" s="54"/>
-      <c r="E56" s="1" t="s">
+      <c r="D56" s="194"/>
+      <c r="E56" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="2" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="289">
+      <c r="A57" s="6">
         <v>55</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>742</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="D57" s="55"/>
-      <c r="E57" s="1" t="s">
+      <c r="D57" s="195"/>
+      <c r="E57" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="2" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="289">
+      <c r="A58" s="6">
         <v>56</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>746</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="D58" s="56"/>
-      <c r="E58" s="1" t="s">
+      <c r="D58" s="196"/>
+      <c r="E58" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="2" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="289">
+      <c r="A59" s="6">
         <v>57</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>750</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="D59" s="57"/>
-      <c r="E59" s="1" t="s">
+      <c r="D59" s="197"/>
+      <c r="E59" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="2" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="289">
+      <c r="A60" s="6">
         <v>58</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>752</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="D60" s="58"/>
-      <c r="E60" s="1" t="s">
+      <c r="D60" s="198"/>
+      <c r="E60" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="2" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="289">
+      <c r="A61" s="6">
         <v>59</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>756</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="D61" s="59"/>
-      <c r="E61" s="1" t="s">
+      <c r="D61" s="199"/>
+      <c r="E61" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="2" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="289">
+      <c r="A62" s="6">
         <v>60</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="D62" s="60"/>
-      <c r="E62" s="1" t="s">
+      <c r="D62" s="200"/>
+      <c r="E62" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="2" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="289">
+      <c r="A63" s="6">
         <v>61</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>763</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="D63" s="61"/>
-      <c r="E63" s="1" t="s">
+      <c r="D63" s="201"/>
+      <c r="E63" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="2" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="289">
+      <c r="A64" s="6">
         <v>62</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>766</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="D64" s="62"/>
-      <c r="E64" s="1" t="s">
+      <c r="D64" s="202"/>
+      <c r="E64" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="2" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="289">
+      <c r="A65" s="6">
         <v>63</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>769</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="D65" s="63"/>
-      <c r="E65" s="1" t="s">
+      <c r="D65" s="203"/>
+      <c r="E65" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="2" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="289">
+      <c r="A66" s="6">
         <v>64</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>773</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="D66" s="64"/>
-      <c r="E66" s="1" t="s">
+      <c r="D66" s="204"/>
+      <c r="E66" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="2" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="289">
+      <c r="A67" s="6">
         <v>65</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>777</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="D67" s="65"/>
-      <c r="E67" s="1" t="s">
+      <c r="D67" s="205"/>
+      <c r="E67" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="2" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="289">
+    <row r="68" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
         <v>66</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>781</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="D68" s="66"/>
-      <c r="E68" s="1" t="s">
+      <c r="D68" s="206"/>
+      <c r="E68" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="2" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="289">
+      <c r="A69" s="6">
         <v>67</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>783</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="D69" s="67"/>
-      <c r="E69" s="1" t="s">
+      <c r="D69" s="207"/>
+      <c r="E69" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="2" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="289">
+      <c r="A70" s="6">
         <v>68</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>785</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="D70" s="68"/>
-      <c r="E70" s="1" t="s">
+      <c r="D70" s="208"/>
+      <c r="E70" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="2" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="289">
+      <c r="A71" s="6">
         <v>69</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>789</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="D71" s="69"/>
-      <c r="E71" s="1" t="s">
+      <c r="D71" s="209"/>
+      <c r="E71" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="2" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="289">
+      <c r="A72" s="6">
         <v>70</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>791</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="D72" s="70"/>
-      <c r="E72" s="1" t="s">
+      <c r="D72" s="210"/>
+      <c r="E72" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="289">
+      <c r="A73" s="6">
         <v>71</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>795</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="D73" s="71"/>
-      <c r="E73" s="1" t="s">
+      <c r="D73" s="211"/>
+      <c r="E73" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" s="2" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="289">
+      <c r="A74" s="6">
         <v>72</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>799</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="D74" s="72"/>
-      <c r="E74" s="1" t="s">
+      <c r="D74" s="212"/>
+      <c r="E74" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" s="2" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="289">
+      <c r="A75" s="6">
         <v>73</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>803</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="D75" s="73"/>
-      <c r="E75" s="1" t="s">
+      <c r="D75" s="213"/>
+      <c r="E75" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="2" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="289">
+      <c r="A76" s="6">
         <v>74</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>807</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="D76" s="74"/>
-      <c r="E76" s="1" t="s">
+      <c r="D76" s="214"/>
+      <c r="E76" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="2" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="289">
+    <row r="77" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
         <v>75</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>811</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="D77" s="75"/>
-      <c r="E77" s="1" t="s">
+      <c r="D77" s="215"/>
+      <c r="E77" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="2" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="289">
+      <c r="A78" s="6">
         <v>76</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>815</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="D78" s="76"/>
-      <c r="E78" s="1" t="s">
+      <c r="D78" s="216"/>
+      <c r="E78" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="2" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="289">
+      <c r="A79" s="6">
         <v>77</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>817</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="D79" s="77"/>
-      <c r="E79" s="1" t="s">
+      <c r="D79" s="217"/>
+      <c r="E79" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="289">
+      <c r="A80" s="6">
         <v>78</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="2" t="s">
         <v>821</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="D80" s="78"/>
-      <c r="E80" s="1" t="s">
+      <c r="D80" s="218"/>
+      <c r="E80" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" s="2" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="289">
+      <c r="A81" s="6">
         <v>79</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>825</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="D81" s="79"/>
-      <c r="E81" s="1" t="s">
+      <c r="D81" s="219"/>
+      <c r="E81" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" s="2" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="289">
+    <row r="82" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
         <v>80</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>829</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="D82" s="80"/>
-      <c r="E82" s="1" t="s">
+      <c r="D82" s="220"/>
+      <c r="E82" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="2" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="63" x14ac:dyDescent="0.2">
-      <c r="A83" s="289">
+    <row r="83" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
         <v>81</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>833</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="D83" s="81"/>
-      <c r="E83" s="1" t="s">
+      <c r="D83" s="221"/>
+      <c r="E83" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F83" s="2" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="289">
+      <c r="A84" s="6">
         <v>82</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="2" t="s">
         <v>835</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="D84" s="82"/>
-      <c r="E84" s="1" t="s">
+      <c r="D84" s="222"/>
+      <c r="E84" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F84" s="2" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="289">
+      <c r="A85" s="6">
         <v>83</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>839</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="D85" s="83"/>
-      <c r="E85" s="1" t="s">
+      <c r="D85" s="223"/>
+      <c r="E85" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F85" s="2" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="289">
+      <c r="A86" s="6">
         <v>84</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="2" t="s">
         <v>843</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="D86" s="84"/>
-      <c r="E86" s="1" t="s">
+      <c r="D86" s="224"/>
+      <c r="E86" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" s="2" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="289">
+      <c r="A87" s="6">
         <v>85</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="2" t="s">
         <v>847</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="D87" s="85"/>
-      <c r="E87" s="1" t="s">
+      <c r="D87" s="225"/>
+      <c r="E87" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="2" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="289">
+      <c r="A88" s="6">
         <v>86</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="2" t="s">
         <v>851</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="D88" s="86"/>
-      <c r="E88" s="1" t="s">
+      <c r="D88" s="226"/>
+      <c r="E88" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" s="2" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="289">
+    <row r="89" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="6">
         <v>87</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="2" t="s">
         <v>855</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="D89" s="87"/>
-      <c r="E89" s="1" t="s">
+      <c r="D89" s="227"/>
+      <c r="E89" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" s="2" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="289">
+      <c r="A90" s="6">
         <v>88</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="2" t="s">
         <v>859</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="D90" s="88"/>
-      <c r="E90" s="1" t="s">
+      <c r="D90" s="228"/>
+      <c r="E90" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" s="2" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="289">
+      <c r="A91" s="6">
         <v>89</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="2" t="s">
         <v>863</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="D91" s="89"/>
-      <c r="E91" s="1" t="s">
+      <c r="D91" s="229"/>
+      <c r="E91" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" s="2" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="289">
+    <row r="92" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
         <v>90</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="2" t="s">
         <v>867</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="D92" s="90"/>
-      <c r="E92" s="1" t="s">
+      <c r="D92" s="230"/>
+      <c r="E92" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F92" s="2" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="289">
+      <c r="A93" s="6">
         <v>91</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="2" t="s">
         <v>871</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="D93" s="91"/>
-      <c r="E93" s="1" t="s">
+      <c r="D93" s="231"/>
+      <c r="E93" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F93" s="2" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="289">
+      <c r="A94" s="6">
         <v>92</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>875</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="D94" s="92"/>
-      <c r="E94" s="1" t="s">
+      <c r="D94" s="232"/>
+      <c r="E94" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" s="2" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="289">
+      <c r="A95" s="6">
         <v>93</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="2" t="s">
         <v>879</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="D95" s="93"/>
-      <c r="E95" s="1" t="s">
+      <c r="D95" s="233"/>
+      <c r="E95" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F95" s="2" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="289">
+      <c r="A96" s="6">
         <v>94</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="2" t="s">
         <v>883</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="D96" s="94"/>
-      <c r="E96" s="1" t="s">
+      <c r="D96" s="234"/>
+      <c r="E96" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F96" s="2" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="289">
+      <c r="A97" s="6">
         <v>95</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>887</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="D97" s="95"/>
-      <c r="E97" s="1" t="s">
+      <c r="D97" s="235"/>
+      <c r="E97" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" s="2" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="289">
+      <c r="A98" s="6">
         <v>96</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="2" t="s">
         <v>891</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="D98" s="96"/>
-      <c r="E98" s="1" t="s">
+      <c r="D98" s="236"/>
+      <c r="E98" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F98" s="2" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="289">
+      <c r="A99" s="6">
         <v>97</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>895</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="D99" s="97"/>
-      <c r="E99" s="1" t="s">
+      <c r="D99" s="237"/>
+      <c r="E99" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F99" s="2" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="289">
+      <c r="A100" s="6">
         <v>98</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>899</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="D100" s="98"/>
-      <c r="E100" s="1" t="s">
+      <c r="D100" s="238"/>
+      <c r="E100" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F100" s="2" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="289">
+      <c r="A101" s="6">
         <v>99</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="2" t="s">
         <v>901</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="D101" s="99"/>
-      <c r="E101" s="1" t="s">
+      <c r="D101" s="239"/>
+      <c r="E101" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F101" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="289">
+      <c r="A102" s="6">
         <v>100</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="2" t="s">
         <v>905</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="D102" s="100"/>
-      <c r="E102" s="1" t="s">
+      <c r="D102" s="240"/>
+      <c r="E102" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F102" s="2" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="289">
+    <row r="103" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
         <v>101</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="2" t="s">
         <v>909</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="D103" s="101"/>
-      <c r="E103" s="1" t="s">
+      <c r="D103" s="241"/>
+      <c r="E103" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="F103" s="2" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="289">
+      <c r="A104" s="6">
         <v>102</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="2" t="s">
         <v>913</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="D104" s="102"/>
-      <c r="E104" s="1" t="s">
+      <c r="D104" s="242"/>
+      <c r="E104" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="F104" s="2" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="289">
+      <c r="A105" s="6">
         <v>103</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="2" t="s">
         <v>917</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="D105" s="103"/>
-      <c r="E105" s="1" t="s">
+      <c r="D105" s="243"/>
+      <c r="E105" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="F105" s="2" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="289">
+      <c r="A106" s="6">
         <v>104</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="D106" s="104"/>
-      <c r="E106" s="1" t="s">
+      <c r="D106" s="244"/>
+      <c r="E106" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="F106" s="2" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="289">
+      <c r="A107" s="6">
         <v>105</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="2" t="s">
         <v>925</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="D107" s="105"/>
-      <c r="E107" s="1" t="s">
+      <c r="D107" s="245"/>
+      <c r="E107" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F107" s="2" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="289">
+    <row r="108" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="6">
         <v>106</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="2" t="s">
         <v>929</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="D108" s="106"/>
-      <c r="E108" s="1" t="s">
+      <c r="D108" s="246"/>
+      <c r="E108" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F108" s="2" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="289">
+      <c r="A109" s="6">
         <v>107</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="2" t="s">
         <v>933</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="D109" s="107"/>
-      <c r="E109" s="1" t="s">
+      <c r="D109" s="247"/>
+      <c r="E109" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F109" s="2" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="289">
+      <c r="A110" s="6">
         <v>108</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="2" t="s">
         <v>937</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="D110" s="108"/>
-      <c r="E110" s="1" t="s">
+      <c r="D110" s="248"/>
+      <c r="E110" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="F110" s="2" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="289">
+      <c r="A111" s="6">
         <v>109</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="2" t="s">
         <v>941</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="D111" s="109"/>
-      <c r="E111" s="1" t="s">
+      <c r="D111" s="249"/>
+      <c r="E111" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="F111" s="2" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="289">
+      <c r="A112" s="6">
         <v>110</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="2" t="s">
         <v>945</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="D112" s="110"/>
-      <c r="E112" s="1" t="s">
+      <c r="D112" s="250"/>
+      <c r="E112" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="F112" s="2" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="289">
+      <c r="A113" s="6">
         <v>111</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="2" t="s">
         <v>949</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="D113" s="111"/>
-      <c r="E113" s="1" t="s">
+      <c r="D113" s="251"/>
+      <c r="E113" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="F113" s="2" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="289">
+      <c r="A114" s="6">
         <v>112</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="2" t="s">
         <v>953</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="D114" s="112"/>
-      <c r="E114" s="1" t="s">
+      <c r="D114" s="252"/>
+      <c r="E114" s="2" t="s">
         <v>952</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="F114" s="2" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="289">
+      <c r="A115" s="6">
         <v>113</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="2" t="s">
         <v>957</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="D115" s="113"/>
-      <c r="E115" s="1" t="s">
+      <c r="D115" s="253"/>
+      <c r="E115" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="F115" s="2" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="289">
+      <c r="A116" s="6">
         <v>114</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="2" t="s">
         <v>961</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="D116" s="114"/>
-      <c r="E116" s="1" t="s">
+      <c r="D116" s="254"/>
+      <c r="E116" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F116" s="2" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="289">
+      <c r="A117" s="6">
         <v>115</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="2" t="s">
         <v>965</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="D117" s="115"/>
-      <c r="E117" s="1" t="s">
+      <c r="D117" s="255"/>
+      <c r="E117" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F117" s="2" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="289">
+      <c r="A118" s="6">
         <v>116</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="2" t="s">
         <v>969</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="D118" s="116"/>
-      <c r="E118" s="1" t="s">
+      <c r="D118" s="256"/>
+      <c r="E118" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="F118" s="2" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="289">
+      <c r="A119" s="6">
         <v>117</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="2" t="s">
         <v>973</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="D119" s="117"/>
-      <c r="E119" s="1" t="s">
+      <c r="D119" s="257"/>
+      <c r="E119" s="2" t="s">
         <v>972</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="F119" s="2" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="289">
+      <c r="A120" s="6">
         <v>118</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="2" t="s">
         <v>977</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="D120" s="118"/>
-      <c r="E120" s="1" t="s">
+      <c r="D120" s="258"/>
+      <c r="E120" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="F120" s="2" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="289">
+      <c r="A121" s="6">
         <v>119</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="2" t="s">
         <v>979</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="D121" s="119"/>
-      <c r="E121" s="1" t="s">
+      <c r="D121" s="259"/>
+      <c r="E121" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F121" s="2" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="289">
+      <c r="A122" s="6">
         <v>120</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="2" t="s">
         <v>983</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="D122" s="120"/>
-      <c r="E122" s="1" t="s">
+      <c r="D122" s="260"/>
+      <c r="E122" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="F122" s="2" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="289">
+      <c r="A123" s="6">
         <v>121</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="2" t="s">
         <v>987</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="D123" s="121"/>
-      <c r="E123" s="1" t="s">
+      <c r="D123" s="261"/>
+      <c r="E123" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="F123" s="2" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="289">
+      <c r="A124" s="6">
         <v>122</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="2" t="s">
         <v>991</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="D124" s="122"/>
-      <c r="E124" s="1" t="s">
+      <c r="D124" s="262"/>
+      <c r="E124" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F124" s="2" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="289">
+      <c r="A125" s="6">
         <v>123</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="2" t="s">
         <v>995</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="D125" s="123"/>
-      <c r="E125" s="1" t="s">
+      <c r="D125" s="263"/>
+      <c r="E125" s="2" t="s">
         <v>994</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="F125" s="2" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="289">
+      <c r="A126" s="6">
         <v>124</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="2" t="s">
         <v>999</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="D126" s="124"/>
-      <c r="E126" s="1" t="s">
+      <c r="D126" s="264"/>
+      <c r="E126" s="2" t="s">
         <v>998</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="F126" s="2" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="289">
+      <c r="A127" s="6">
         <v>125</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="D127" s="125"/>
-      <c r="E127" s="1" t="s">
+      <c r="D127" s="265"/>
+      <c r="E127" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="F127" s="2" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="289">
+      <c r="A128" s="6">
         <v>126</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="2" t="s">
         <v>1007</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="D128" s="126"/>
-      <c r="E128" s="1" t="s">
+      <c r="D128" s="266"/>
+      <c r="E128" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="F128" s="2" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="289">
+    <row r="129" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A129" s="6">
         <v>127</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="2" t="s">
         <v>1011</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="D129" s="127"/>
-      <c r="E129" s="1" t="s">
+      <c r="D129" s="267"/>
+      <c r="E129" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="F129" s="2" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="289">
+      <c r="A130" s="6">
         <v>128</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="2" t="s">
         <v>1014</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="D130" s="128"/>
-      <c r="E130" s="1" t="s">
+      <c r="D130" s="268"/>
+      <c r="E130" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="F130" s="2" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="289">
+      <c r="A131" s="6">
         <v>129</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="2" t="s">
         <v>1018</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="D131" s="129"/>
-      <c r="E131" s="1" t="s">
+      <c r="D131" s="269"/>
+      <c r="E131" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F131" s="2" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="289">
+      <c r="A132" s="6">
         <v>130</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="2" t="s">
         <v>1022</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="D132" s="130"/>
-      <c r="E132" s="1" t="s">
+      <c r="D132" s="270"/>
+      <c r="E132" s="2" t="s">
         <v>1021</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="F132" s="2" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="289">
+      <c r="A133" s="6">
         <v>131</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="D133" s="131"/>
-      <c r="E133" s="1" t="s">
+      <c r="D133" s="271"/>
+      <c r="E133" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="F133" s="2" t="s">
         <v>1024</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="289">
+      <c r="A134" s="6">
         <v>132</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="2" t="s">
         <v>1030</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="D134" s="132"/>
-      <c r="E134" s="1" t="s">
+      <c r="D134" s="272"/>
+      <c r="E134" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="F134" s="2" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="289">
+      <c r="A135" s="6">
         <v>133</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="2" t="s">
         <v>1034</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="D135" s="133"/>
-      <c r="E135" s="1" t="s">
+      <c r="D135" s="273"/>
+      <c r="E135" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="F135" s="2" t="s">
         <v>1032</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="289">
+      <c r="A136" s="6">
         <v>134</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="2" t="s">
         <v>1038</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="D136" s="134"/>
-      <c r="E136" s="1" t="s">
+      <c r="D136" s="274"/>
+      <c r="E136" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="F136" s="2" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="289">
+      <c r="A137" s="6">
         <v>135</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="2" t="s">
         <v>1042</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="D137" s="135"/>
-      <c r="E137" s="1" t="s">
+      <c r="D137" s="275"/>
+      <c r="E137" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="F137" s="2" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="289">
+      <c r="A138" s="6">
         <v>136</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="2" t="s">
         <v>1044</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="D138" s="136"/>
-      <c r="E138" s="1" t="s">
+      <c r="D138" s="276"/>
+      <c r="E138" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="F138" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="289">
+    <row r="139" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A139" s="6">
         <v>137</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="2" t="s">
         <v>1048</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="D139" s="137"/>
-      <c r="E139" s="1" t="s">
+      <c r="D139" s="277"/>
+      <c r="E139" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="F139" s="2" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="289">
+      <c r="A140" s="6">
         <v>138</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="2" t="s">
         <v>1052</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="D140" s="138"/>
-      <c r="E140" s="1" t="s">
+      <c r="D140" s="278"/>
+      <c r="E140" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="F140" s="2" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A141" s="289">
+    <row r="141" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A141" s="6">
         <v>139</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="2" t="s">
         <v>1056</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="D141" s="139"/>
-      <c r="E141" s="1" t="s">
+      <c r="D141" s="279"/>
+      <c r="E141" s="2" t="s">
         <v>1055</v>
       </c>
-      <c r="F141" s="1" t="s">
+      <c r="F141" s="2" t="s">
         <v>1054</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="289">
+      <c r="A142" s="6">
         <v>140</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="2" t="s">
         <v>1060</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="D142" s="140"/>
-      <c r="E142" s="1" t="s">
+      <c r="D142" s="280"/>
+      <c r="E142" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="F142" s="1" t="s">
+      <c r="F142" s="2" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="289">
+      <c r="A143" s="6">
         <v>141</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="2" t="s">
         <v>1064</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="D143" s="141"/>
-      <c r="E143" s="1" t="s">
+      <c r="D143" s="281"/>
+      <c r="E143" s="2" t="s">
         <v>1063</v>
       </c>
-      <c r="F143" s="1" t="s">
+      <c r="F143" s="2" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="289">
+      <c r="A144" s="6">
         <v>142</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="2" t="s">
         <v>1067</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="D144" s="142"/>
-      <c r="E144" s="143" t="s">
+      <c r="D144" s="282"/>
+      <c r="E144" s="112" t="s">
         <v>1099</v>
       </c>
-      <c r="F144" s="1" t="s">
+      <c r="F144" s="2" t="s">
         <v>1066</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="289">
+      <c r="A145" s="6">
         <v>143</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="2" t="s">
         <v>1071</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="D145" s="144"/>
-      <c r="E145" s="1" t="s">
+      <c r="D145" s="283"/>
+      <c r="E145" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="F145" s="2" t="s">
         <v>1069</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="289">
+      <c r="A146" s="6">
         <v>144</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="2" t="s">
         <v>1075</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="D146" s="145"/>
-      <c r="E146" s="1" t="s">
+      <c r="D146" s="284"/>
+      <c r="E146" s="2" t="s">
         <v>1074</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="F146" s="2" t="s">
         <v>1073</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="289">
+      <c r="A147" s="6">
         <v>145</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="2" t="s">
         <v>1079</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="D147" s="146"/>
-      <c r="E147" s="1" t="s">
+      <c r="D147" s="285"/>
+      <c r="E147" s="2" t="s">
         <v>1078</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="F147" s="2" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="289">
+      <c r="A148" s="6">
         <v>146</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="2" t="s">
         <v>1083</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="D148" s="147"/>
-      <c r="E148" s="1" t="s">
+      <c r="D148" s="286"/>
+      <c r="E148" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="F148" s="1" t="s">
+      <c r="F148" s="2" t="s">
         <v>1081</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="289">
+      <c r="A149" s="6">
         <v>147</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="2" t="s">
         <v>1087</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D149" s="148"/>
-      <c r="E149" s="1" t="s">
+      <c r="D149" s="287"/>
+      <c r="E149" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="F149" s="1" t="s">
+      <c r="F149" s="2" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="289">
+      <c r="A150" s="6">
         <v>148</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="2" t="s">
         <v>1091</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="D150" s="149"/>
-      <c r="E150" s="1" t="s">
+      <c r="D150" s="288"/>
+      <c r="E150" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="F150" s="2" t="s">
         <v>1089</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="289">
+      <c r="A151" s="6">
         <v>149</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="2" t="s">
         <v>1093</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="D151" s="150"/>
-      <c r="E151" s="1" t="s">
+      <c r="D151" s="289"/>
+      <c r="E151" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="F151" s="2" t="s">
         <v>303</v>
       </c>
     </row>
@@ -8777,17 +8777,17 @@
       <c r="A152" s="290">
         <v>150</v>
       </c>
-      <c r="B152" s="151" t="s">
+      <c r="B152" s="291" t="s">
         <v>1097</v>
       </c>
-      <c r="C152" s="151" t="s">
+      <c r="C152" s="292" t="s">
         <v>1098</v>
       </c>
-      <c r="D152" s="152"/>
-      <c r="E152" s="151" t="s">
+      <c r="D152" s="293"/>
+      <c r="E152" s="291" t="s">
         <v>1096</v>
       </c>
-      <c r="F152" s="151" t="s">
+      <c r="F152" s="291" t="s">
         <v>1095</v>
       </c>
     </row>
@@ -8796,2446 +8796,2454 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="21" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="293" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="25.83203125" style="153" customWidth="1"/>
-    <col min="7" max="16384" width="9.33203125" style="153"/>
+    <col min="1" max="1" width="8.83203125" style="140" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="140" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="21" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="286" t="s">
+    <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="288" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="288" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="288" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="288" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="288" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="288" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="289">
+    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="289">
+    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="289">
+    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="157"/>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="289">
+    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="158"/>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="289">
+    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="159"/>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="289">
+    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="160"/>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="289">
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="161"/>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="289">
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="162"/>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="289">
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="163"/>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="289">
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="164"/>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="289">
+    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="165"/>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="289">
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="166"/>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="289">
+    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="167"/>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="289">
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="168"/>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="289">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="169"/>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="21"/>
+      <c r="E17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="289">
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="170"/>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="289">
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="171"/>
-      <c r="E19" s="1" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="289">
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="172"/>
-      <c r="E20" s="1" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="289">
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="173"/>
-      <c r="E21" s="1" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="289">
+    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="174"/>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="289">
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="175"/>
-      <c r="E23" s="1" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="289">
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="176"/>
-      <c r="E24" s="1" t="s">
+      <c r="D24" s="28"/>
+      <c r="E24" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="289">
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="177"/>
-      <c r="E25" s="1" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="289">
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="178"/>
-      <c r="E26" s="1" t="s">
+      <c r="D26" s="30"/>
+      <c r="E26" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="289">
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="179"/>
-      <c r="E27" s="1" t="s">
+      <c r="D27" s="31"/>
+      <c r="E27" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="289">
+    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
         <v>28</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="180"/>
-      <c r="E28" s="1" t="s">
+      <c r="D28" s="32"/>
+      <c r="E28" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="289">
+    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
         <v>31</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="181"/>
-      <c r="E29" s="1" t="s">
+      <c r="D29" s="33"/>
+      <c r="E29" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="289">
+    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
         <v>32</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="182"/>
-      <c r="E30" s="1" t="s">
+      <c r="D30" s="34"/>
+      <c r="E30" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="289">
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
         <v>33</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="183"/>
-      <c r="E31" s="1" t="s">
+      <c r="D31" s="35"/>
+      <c r="E31" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="289">
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
         <v>34</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="184"/>
-      <c r="E32" s="1" t="s">
+      <c r="D32" s="36"/>
+      <c r="E32" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="289">
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
         <v>35</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D33" s="185"/>
-      <c r="E33" s="1" t="s">
+      <c r="D33" s="37"/>
+      <c r="E33" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="289">
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
         <v>36</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="186"/>
-      <c r="E34" s="1" t="s">
+      <c r="D34" s="38"/>
+      <c r="E34" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="289">
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
         <v>37</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="187"/>
-      <c r="E35" s="1" t="s">
+      <c r="D35" s="39"/>
+      <c r="E35" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="289">
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
         <v>38</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D36" s="188"/>
-      <c r="E36" s="1" t="s">
+      <c r="D36" s="40"/>
+      <c r="E36" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="289">
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
         <v>39</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="189"/>
-      <c r="E37" s="1" t="s">
+      <c r="D37" s="41"/>
+      <c r="E37" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="289">
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
         <v>40</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="190"/>
-      <c r="E38" s="1" t="s">
+      <c r="D38" s="42"/>
+      <c r="E38" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="289">
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
         <v>41</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D39" s="191"/>
-      <c r="E39" s="1" t="s">
+      <c r="D39" s="43"/>
+      <c r="E39" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="289">
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
         <v>42</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D40" s="192"/>
-      <c r="E40" s="1" t="s">
+      <c r="D40" s="44"/>
+      <c r="E40" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="289">
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
         <v>43</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D41" s="193"/>
-      <c r="E41" s="1" t="s">
+      <c r="D41" s="45"/>
+      <c r="E41" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="289">
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
         <v>44</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D42" s="194"/>
-      <c r="E42" s="1" t="s">
+      <c r="D42" s="46"/>
+      <c r="E42" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="289">
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
         <v>46</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D43" s="195"/>
-      <c r="E43" s="1" t="s">
+      <c r="D43" s="47"/>
+      <c r="E43" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="289">
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
         <v>47</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D44" s="196"/>
-      <c r="E44" s="1" t="s">
+      <c r="D44" s="48"/>
+      <c r="E44" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="289">
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
         <v>48</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D45" s="197"/>
-      <c r="E45" s="1" t="s">
+      <c r="D45" s="49"/>
+      <c r="E45" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="289">
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
         <v>49</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>181</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D46" s="198"/>
-      <c r="E46" s="1" t="s">
+      <c r="D46" s="50"/>
+      <c r="E46" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="289">
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
         <v>50</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>185</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D47" s="199"/>
-      <c r="E47" s="1" t="s">
+      <c r="D47" s="51"/>
+      <c r="E47" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="289">
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
         <v>51</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D48" s="200"/>
-      <c r="E48" s="1" t="s">
+      <c r="D48" s="52"/>
+      <c r="E48" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="289">
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
         <v>52</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D49" s="201"/>
-      <c r="E49" s="1" t="s">
+      <c r="D49" s="53"/>
+      <c r="E49" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="289">
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
         <v>53</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D50" s="202"/>
-      <c r="E50" s="1" t="s">
+      <c r="D50" s="54"/>
+      <c r="E50" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="289">
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
         <v>54</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>201</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D51" s="203"/>
-      <c r="E51" s="1" t="s">
+      <c r="D51" s="55"/>
+      <c r="E51" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="289">
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
         <v>55</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D52" s="204"/>
-      <c r="E52" s="1" t="s">
+      <c r="D52" s="56"/>
+      <c r="E52" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="289">
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
         <v>56</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D53" s="205"/>
-      <c r="E53" s="1" t="s">
+      <c r="D53" s="57"/>
+      <c r="E53" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="289">
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
         <v>57</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D54" s="206"/>
-      <c r="E54" s="1" t="s">
+      <c r="D54" s="58"/>
+      <c r="E54" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="289">
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
         <v>58</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D55" s="207"/>
-      <c r="E55" s="1" t="s">
+      <c r="D55" s="59"/>
+      <c r="E55" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="289">
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
         <v>59</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D56" s="208"/>
-      <c r="E56" s="1" t="s">
+      <c r="D56" s="60"/>
+      <c r="E56" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="289">
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
         <v>60</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D57" s="209"/>
-      <c r="E57" s="1" t="s">
+      <c r="D57" s="61"/>
+      <c r="E57" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="289">
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
         <v>61</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>229</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D58" s="210"/>
-      <c r="E58" s="1" t="s">
+      <c r="D58" s="62"/>
+      <c r="E58" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="289">
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
         <v>62</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>233</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D59" s="211"/>
-      <c r="E59" s="1" t="s">
+      <c r="D59" s="63"/>
+      <c r="E59" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="289">
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
         <v>63</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D60" s="212"/>
-      <c r="E60" s="1" t="s">
+      <c r="D60" s="64"/>
+      <c r="E60" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="289">
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
         <v>64</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>241</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D61" s="103"/>
-      <c r="E61" s="1" t="s">
+      <c r="D61" s="65"/>
+      <c r="E61" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="289">
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
         <v>65</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>245</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D62" s="213"/>
-      <c r="E62" s="1" t="s">
+      <c r="D62" s="66"/>
+      <c r="E62" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="289">
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
         <v>67</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D63" s="214"/>
-      <c r="E63" s="1" t="s">
+      <c r="D63" s="67"/>
+      <c r="E63" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="289">
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
         <v>70</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>253</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D64" s="215"/>
-      <c r="E64" s="1" t="s">
+      <c r="D64" s="68"/>
+      <c r="E64" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="289">
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
         <v>72</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>257</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D65" s="216"/>
-      <c r="E65" s="1" t="s">
+      <c r="D65" s="69"/>
+      <c r="E65" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="289">
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
         <v>73</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>261</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D66" s="217"/>
-      <c r="E66" s="1" t="s">
+      <c r="D66" s="70"/>
+      <c r="E66" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="289">
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
         <v>74</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>265</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D67" s="218"/>
-      <c r="E67" s="1" t="s">
+      <c r="D67" s="71"/>
+      <c r="E67" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="289">
+    <row r="68" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
         <v>75</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>269</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D68" s="219"/>
-      <c r="E68" s="1" t="s">
+      <c r="D68" s="72"/>
+      <c r="E68" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="289">
+    <row r="69" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
         <v>76</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D69" s="220"/>
-      <c r="E69" s="1" t="s">
+      <c r="D69" s="73"/>
+      <c r="E69" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="289">
+    <row r="70" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
         <v>77</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>277</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D70" s="221"/>
-      <c r="E70" s="1" t="s">
+      <c r="D70" s="74"/>
+      <c r="E70" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="289">
+    <row r="71" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
         <v>78</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>281</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D71" s="222"/>
-      <c r="E71" s="1" t="s">
+      <c r="D71" s="75"/>
+      <c r="E71" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="289">
+    <row r="72" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
         <v>79</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>285</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D72" s="223"/>
-      <c r="E72" s="1" t="s">
+      <c r="D72" s="76"/>
+      <c r="E72" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="289">
+    <row r="73" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
         <v>80</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>289</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D73" s="224"/>
-      <c r="E73" s="1" t="s">
+      <c r="D73" s="77"/>
+      <c r="E73" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="289">
+    <row r="74" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
         <v>81</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>293</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D74" s="225"/>
-      <c r="E74" s="1" t="s">
+      <c r="D74" s="78"/>
+      <c r="E74" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="289">
+    <row r="75" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
         <v>82</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>297</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D75" s="226"/>
-      <c r="E75" s="1" t="s">
+      <c r="D75" s="79"/>
+      <c r="E75" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="289">
+    <row r="76" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
         <v>84</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>301</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D76" s="227"/>
-      <c r="E76" s="1" t="s">
+      <c r="D76" s="80"/>
+      <c r="E76" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="289">
+    <row r="77" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
         <v>85</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>305</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D77" s="228"/>
-      <c r="E77" s="1" t="s">
+      <c r="D77" s="81"/>
+      <c r="E77" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="289">
+    <row r="78" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
         <v>86</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>309</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D78" s="229"/>
-      <c r="E78" s="1" t="s">
+      <c r="D78" s="82"/>
+      <c r="E78" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="289">
+    <row r="79" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
         <v>87</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>313</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D79" s="230"/>
-      <c r="E79" s="1" t="s">
+      <c r="D79" s="83"/>
+      <c r="E79" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="289">
+    <row r="80" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="6">
         <v>88</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="2" t="s">
         <v>317</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D80" s="231"/>
-      <c r="E80" s="1" t="s">
+      <c r="D80" s="84"/>
+      <c r="E80" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="289">
+    <row r="81" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
         <v>89</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>321</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D81" s="232"/>
-      <c r="E81" s="1" t="s">
+      <c r="D81" s="85"/>
+      <c r="E81" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="289">
+    <row r="82" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
         <v>90</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>325</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D82" s="233"/>
-      <c r="E82" s="1" t="s">
+      <c r="D82" s="86"/>
+      <c r="E82" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="289">
+    <row r="83" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
         <v>92</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>329</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D83" s="234"/>
-      <c r="E83" s="1" t="s">
+      <c r="D83" s="87"/>
+      <c r="E83" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F83" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="289">
+    <row r="84" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
         <v>93</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="2" t="s">
         <v>333</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D84" s="235"/>
-      <c r="E84" s="1" t="s">
+      <c r="D84" s="88"/>
+      <c r="E84" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F84" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="289">
+    <row r="85" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
         <v>95</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>337</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D85" s="236"/>
-      <c r="E85" s="1" t="s">
+      <c r="D85" s="89"/>
+      <c r="E85" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F85" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="289">
+    <row r="86" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="6">
         <v>100</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="2" t="s">
         <v>341</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D86" s="237"/>
-      <c r="E86" s="1" t="s">
+      <c r="D86" s="90"/>
+      <c r="E86" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="289">
+    <row r="87" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="6">
         <v>107</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="2" t="s">
         <v>345</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D87" s="238"/>
-      <c r="E87" s="1" t="s">
+      <c r="D87" s="91"/>
+      <c r="E87" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="289">
+    <row r="88" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
         <v>109</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="2" t="s">
         <v>349</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D88" s="239"/>
-      <c r="E88" s="1" t="s">
+      <c r="D88" s="92"/>
+      <c r="E88" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="289">
+    <row r="89" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="6">
         <v>112</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="2" t="s">
         <v>353</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D89" s="240"/>
-      <c r="E89" s="1" t="s">
+      <c r="D89" s="93"/>
+      <c r="E89" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="289">
+    <row r="90" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="6">
         <v>118</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="2" t="s">
         <v>357</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D90" s="241"/>
-      <c r="E90" s="1" t="s">
+      <c r="D90" s="94"/>
+      <c r="E90" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="289">
+    <row r="91" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="6">
         <v>119</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="2" t="s">
         <v>361</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D91" s="242"/>
-      <c r="E91" s="1" t="s">
+      <c r="D91" s="95"/>
+      <c r="E91" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="289">
+    <row r="92" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
         <v>122</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="2" t="s">
         <v>365</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D92" s="243"/>
-      <c r="E92" s="1" t="s">
+      <c r="D92" s="96"/>
+      <c r="E92" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F92" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="289">
+    <row r="93" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
         <v>125</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="2" t="s">
         <v>369</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D93" s="244"/>
-      <c r="E93" s="1" t="s">
+      <c r="D93" s="97"/>
+      <c r="E93" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F93" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="289">
+    <row r="94" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="6">
         <v>128</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>373</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D94" s="245"/>
-      <c r="E94" s="1" t="s">
+      <c r="D94" s="98"/>
+      <c r="E94" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="289">
+    <row r="95" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="6">
         <v>130</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="2" t="s">
         <v>377</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D95" s="246"/>
-      <c r="E95" s="1" t="s">
+      <c r="D95" s="99"/>
+      <c r="E95" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F95" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="289">
+    <row r="96" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="6">
         <v>133</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="2" t="s">
         <v>381</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D96" s="247"/>
-      <c r="E96" s="1" t="s">
+      <c r="D96" s="100"/>
+      <c r="E96" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F96" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="289">
+    <row r="97" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="6">
         <v>138</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>385</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D97" s="248"/>
-      <c r="E97" s="1" t="s">
+      <c r="D97" s="101"/>
+      <c r="E97" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="289">
+    <row r="98" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="6">
         <v>141</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="2" t="s">
         <v>389</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="D98" s="249"/>
-      <c r="E98" s="1" t="s">
+      <c r="D98" s="102"/>
+      <c r="E98" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F98" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="289">
+    <row r="99" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="6">
         <v>144</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>393</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D99" s="250"/>
-      <c r="E99" s="1" t="s">
+      <c r="D99" s="103"/>
+      <c r="E99" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F99" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="289">
+    <row r="100" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="6">
         <v>145</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>397</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="D100" s="251"/>
-      <c r="E100" s="1" t="s">
+      <c r="D100" s="104"/>
+      <c r="E100" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F100" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="289">
+    <row r="101" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="6">
         <v>147</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="2" t="s">
         <v>401</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D101" s="252"/>
-      <c r="E101" s="1" t="s">
+      <c r="D101" s="105"/>
+      <c r="E101" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F101" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="289">
+    <row r="102" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="6">
         <v>148</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="2" t="s">
         <v>405</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D102" s="253"/>
-      <c r="E102" s="1" t="s">
+      <c r="D102" s="106"/>
+      <c r="E102" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F102" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="289">
+    <row r="103" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
         <v>149</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="2" t="s">
         <v>409</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D103" s="254"/>
-      <c r="E103" s="1" t="s">
+      <c r="D103" s="107"/>
+      <c r="E103" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="F103" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="289">
+    <row r="104" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="6">
         <v>151</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="2" t="s">
         <v>413</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D104" s="255"/>
-      <c r="E104" s="1" t="s">
+      <c r="D104" s="108"/>
+      <c r="E104" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="F104" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="289">
+    <row r="105" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="6">
         <v>154</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="2" t="s">
         <v>417</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D105" s="256"/>
-      <c r="E105" s="1" t="s">
+      <c r="D105" s="109"/>
+      <c r="E105" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="F105" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="289">
+    <row r="106" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="6">
         <v>155</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="2" t="s">
         <v>421</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D106" s="257"/>
-      <c r="E106" s="1" t="s">
+      <c r="D106" s="110"/>
+      <c r="E106" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="F106" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="289">
+    <row r="107" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="6">
         <v>156</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="2" t="s">
         <v>425</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D107" s="258"/>
-      <c r="E107" s="1" t="s">
+      <c r="D107" s="111"/>
+      <c r="E107" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F107" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="289">
+    <row r="108" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="6">
         <v>159</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="2" t="s">
         <v>429</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="D108" s="143"/>
-      <c r="E108" s="1" t="s">
+      <c r="D108" s="112"/>
+      <c r="E108" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F108" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="289">
+    <row r="109" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="6">
         <v>161</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="2" t="s">
         <v>433</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D109" s="259"/>
-      <c r="E109" s="1" t="s">
+      <c r="D109" s="113"/>
+      <c r="E109" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F109" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="289">
+    <row r="110" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="6">
         <v>166</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="2" t="s">
         <v>437</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D110" s="260"/>
-      <c r="E110" s="1" t="s">
+      <c r="D110" s="114"/>
+      <c r="E110" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="F110" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="289">
+    <row r="111" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="6">
         <v>168</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="2" t="s">
         <v>441</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D111" s="261"/>
-      <c r="E111" s="1" t="s">
+      <c r="D111" s="115"/>
+      <c r="E111" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="F111" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="289">
+    <row r="112" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="6">
         <v>171</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D112" s="262"/>
-      <c r="E112" s="1" t="s">
+      <c r="D112" s="116"/>
+      <c r="E112" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="F112" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="289">
+    <row r="113" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="6">
         <v>175</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="2" t="s">
         <v>449</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D113" s="263"/>
-      <c r="E113" s="1" t="s">
+      <c r="D113" s="117"/>
+      <c r="E113" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="F113" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="289">
+    <row r="114" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="6">
         <v>176</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="2" t="s">
         <v>452</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D114" s="264"/>
-      <c r="E114" s="1" t="s">
+      <c r="D114" s="118"/>
+      <c r="E114" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="F114" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="289">
+    <row r="115" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="6">
         <v>177</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="2" t="s">
         <v>456</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="D115" s="265"/>
-      <c r="E115" s="1" t="s">
+      <c r="D115" s="119"/>
+      <c r="E115" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="F115" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="289">
+    <row r="116" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="6">
         <v>178</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="2" t="s">
         <v>460</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D116" s="266"/>
-      <c r="E116" s="1" t="s">
+      <c r="D116" s="120"/>
+      <c r="E116" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F116" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="289">
+    <row r="117" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="6">
         <v>180</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="2" t="s">
         <v>464</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D117" s="267"/>
-      <c r="E117" s="1" t="s">
+      <c r="D117" s="121"/>
+      <c r="E117" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F117" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="289">
+    <row r="118" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="6">
         <v>181</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="2" t="s">
         <v>468</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D118" s="268"/>
-      <c r="E118" s="1" t="s">
+      <c r="D118" s="122"/>
+      <c r="E118" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="F118" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="289">
+    <row r="119" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="6">
         <v>184</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="2" t="s">
         <v>472</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D119" s="269"/>
-      <c r="E119" s="1" t="s">
+      <c r="D119" s="123"/>
+      <c r="E119" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="F119" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="289">
+    <row r="120" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="6">
         <v>185</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="2" t="s">
         <v>476</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D120" s="270"/>
-      <c r="E120" s="1" t="s">
+      <c r="D120" s="124"/>
+      <c r="E120" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="F120" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="289">
+    <row r="121" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="6">
         <v>186</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="2" t="s">
         <v>480</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="D121" s="271"/>
-      <c r="E121" s="1" t="s">
+      <c r="D121" s="125"/>
+      <c r="E121" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F121" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="289">
+    <row r="122" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="6">
         <v>187</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="2" t="s">
         <v>484</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="D122" s="272"/>
-      <c r="E122" s="1" t="s">
+      <c r="D122" s="126"/>
+      <c r="E122" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="F122" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="289">
+    <row r="123" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="6">
         <v>188</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="2" t="s">
         <v>488</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D123" s="273"/>
-      <c r="E123" s="1" t="s">
+      <c r="D123" s="127"/>
+      <c r="E123" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="F123" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="289">
+    <row r="124" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="6">
         <v>189</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="2" t="s">
         <v>492</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="D124" s="274"/>
-      <c r="E124" s="1" t="s">
+      <c r="D124" s="128"/>
+      <c r="E124" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F124" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="289">
+    <row r="125" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="6">
         <v>190</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="2" t="s">
         <v>496</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="D125" s="275"/>
-      <c r="E125" s="1" t="s">
+      <c r="D125" s="129"/>
+      <c r="E125" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="F125" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="289">
+    <row r="126" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="6">
         <v>191</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="2" t="s">
         <v>500</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="D126" s="276"/>
-      <c r="E126" s="1" t="s">
+      <c r="D126" s="130"/>
+      <c r="E126" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="F126" s="2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="289">
+    <row r="127" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="6">
         <v>192</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="2" t="s">
         <v>504</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="D127" s="277"/>
-      <c r="E127" s="1" t="s">
+      <c r="D127" s="131"/>
+      <c r="E127" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="F127" s="2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="289">
+    <row r="128" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="6">
         <v>193</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="2" t="s">
         <v>508</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D128" s="278"/>
-      <c r="E128" s="1" t="s">
+      <c r="D128" s="132"/>
+      <c r="E128" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="F128" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="289">
+    <row r="129" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="6">
         <v>194</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="2" t="s">
         <v>512</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="D129" s="279"/>
-      <c r="E129" s="1" t="s">
+      <c r="D129" s="133"/>
+      <c r="E129" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="F129" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="289">
+    <row r="130" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="6">
         <v>195</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="2" t="s">
         <v>516</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="D130" s="280"/>
-      <c r="E130" s="1" t="s">
+      <c r="D130" s="134"/>
+      <c r="E130" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="F130" s="2" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="289">
+    <row r="131" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="6">
         <v>196</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="2" t="s">
         <v>520</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D131" s="281"/>
-      <c r="E131" s="1" t="s">
+      <c r="D131" s="135"/>
+      <c r="E131" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F131" s="2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="289">
+    <row r="132" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="6">
         <v>197</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="2" t="s">
         <v>524</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="D132" s="282"/>
-      <c r="E132" s="1" t="s">
+      <c r="D132" s="136"/>
+      <c r="E132" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="F132" s="2" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="289">
+    <row r="133" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="6">
         <v>198</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="2" t="s">
         <v>528</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="D133" s="283"/>
-      <c r="E133" s="1" t="s">
+      <c r="D133" s="137"/>
+      <c r="E133" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="F133" s="2" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="289">
+    <row r="134" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="6">
         <v>199</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="2" t="s">
         <v>532</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="D134" s="284"/>
-      <c r="E134" s="1" t="s">
+      <c r="D134" s="138"/>
+      <c r="E134" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="F134" s="2" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="289">
+    <row r="135" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="6">
         <v>200</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="D135" s="285"/>
-      <c r="E135" s="1" t="s">
+      <c r="D135" s="139"/>
+      <c r="E135" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="F135" s="2" t="s">
         <v>534</v>
       </c>
     </row>
@@ -11244,7 +11252,7 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.23622047244094488" right="0.23622047244094488" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>